--- a/target/test-classes/testdata/TestCasesforBusBooking-Yatra.xlsx
+++ b/target/test-classes/testdata/TestCasesforBusBooking-Yatra.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="16125" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:I13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Project Name</t>
   </si>
@@ -59,9 +60,6 @@
   </si>
   <si>
     <t>TestData</t>
-  </si>
-  <si>
-    <t>Expected Value</t>
   </si>
   <si>
     <t>Status</t>
@@ -87,6 +85,9 @@
 6.Click on Search Buses</t>
   </si>
   <si>
+    <t>Open url and click buses.select from and to places.select date of journey and click search buses.</t>
+  </si>
+  <si>
     <t>1.URL : https://www.yatra.com/
 2.Enter Hyderabad
 3.Enter Banglore
@@ -94,6 +95,9 @@
 5.Search Buses</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>TC-002</t>
   </si>
   <si>
@@ -107,12 +111,18 @@
 5.Select any Bus as per requirements</t>
   </si>
   <si>
+    <t>Enter bus type and amenties.select no.of passengers and click sort by duration.select any bus.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.Enter Sleeper
 2.Enter AC
 3. Enter 3 adults
 </t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>TC-003</t>
   </si>
   <si>
@@ -124,6 +134,9 @@
 3.Click on Continue for signin to book a  bus</t>
   </si>
   <si>
+    <t>After selecting bus.select any 3 seats and click continue button to goto next page.</t>
+  </si>
+  <si>
     <t>1. Selected 3 seats
 2.Y junction
 3.Clicked continue button</t>
@@ -138,6 +151,9 @@
     <t>1.Click emailaddress
 2.Click Phone Number
 3.Click BookAsGuest to fill travellers details</t>
+  </si>
+  <si>
+    <t>After selecting bus seats enter emailid and phone number for confirmation.and click bookasguest for confirm the booking.</t>
   </si>
   <si>
     <t>1.Enter saianusha.p7@gmail.com
@@ -154,6 +170,9 @@
 2.Click Title,Name and Age of the second passenger
 3.Click Title,Name and Age of the third passenger
 4.Click on Continue to go to Make Payment</t>
+  </si>
+  <si>
+    <t>fill all the passenger details like title,name and age of three passengers.and after entering details click continue for make payment.</t>
   </si>
   <si>
     <t>1.Enter Mr,Bunny,20
@@ -166,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -193,29 +212,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,85 +271,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,8 +310,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -330,7 +342,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,13 +364,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,13 +472,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,61 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,85 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +555,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,17 +621,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,30 +647,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -641,15 +660,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,40 +678,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -701,92 +720,92 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,6 +815,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -803,17 +825,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -822,9 +838,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1145,28 +1158,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.2857142857143" style="1" customWidth="1"/>
     <col min="5" max="6" width="39.1428571428571" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.1428571428571" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="33.1428571428571" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.5714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5"/>
@@ -1176,10 +1189,10 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5"/>
@@ -1189,10 +1202,10 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" ht="15.75" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5"/>
@@ -1202,7 +1215,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" ht="15.75" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7">
@@ -1215,10 +1228,10 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" ht="15.75" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1234,120 +1247,141 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" ht="15.75" spans="1:9">
-      <c r="A7" s="3" t="s">
+    <row r="7" ht="15.75" spans="1:8">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="8" ht="93" customHeight="1" spans="1:8">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" ht="93" customHeight="1" spans="1:7">
-      <c r="A8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>22</v>
+    <row r="9" ht="84" customHeight="1" spans="3:8">
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="9" ht="84" customHeight="1" spans="3:7">
-      <c r="C9" s="1" t="s">
+    <row r="10" ht="49" customHeight="1" spans="3:8">
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="10" ht="49" customHeight="1" spans="3:7">
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
-        <v>30</v>
+    <row r="11" ht="66" customHeight="1" spans="3:8">
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="11" ht="66" customHeight="1" spans="3:7">
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>34</v>
+    <row r="12" ht="126" customHeight="1" spans="3:8">
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="12" ht="126" customHeight="1" spans="3:7">
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7">
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+    <row r="13" spans="5:6">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
